--- a/inst/extdata/examples/xlsx/heatmap-tozo.xlsx
+++ b/inst/extdata/examples/xlsx/heatmap-tozo.xlsx
@@ -30,7 +30,7 @@
     <t xml:space="preserve">title</t>
   </si>
   <si>
-    <t xml:space="preserve">Fractie bedrijven die TOZO gebruikt</t>
+    <t xml:space="preserve">Percentage bedrijven dat TOZO gebruikt</t>
   </si>
   <si>
     <t xml:space="preserve">x_title</t>
